--- a/dataanalysis/data/predictions/1000/09021007_1009.xlsx
+++ b/dataanalysis/data/predictions/1000/09021007_1009.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-02</t>
   </si>
   <si>
@@ -401,12 +404,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -764,13 +761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH64"/>
+  <dimension ref="A1:AI64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,19 +870,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300035</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-1.26</v>
@@ -903,7 +903,7 @@
         <v>58793.72</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -944,8 +944,23 @@
       <c r="W2">
         <v>-0.24</v>
       </c>
+      <c r="X2">
+        <v>6.21</v>
+      </c>
+      <c r="Y2">
+        <v>22.2</v>
+      </c>
+      <c r="Z2">
+        <v>5.06</v>
+      </c>
       <c r="AC2" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -953,22 +968,25 @@
       <c r="AG2">
         <v>9.823587417602539</v>
       </c>
-      <c r="AH2" t="s">
-        <v>129</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300085</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>3.13</v>
@@ -986,7 +1004,7 @@
         <v>267447.42</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1027,8 +1045,23 @@
       <c r="W3">
         <v>0.13</v>
       </c>
+      <c r="X3">
+        <v>-11.66</v>
+      </c>
+      <c r="Y3">
+        <v>58.88</v>
+      </c>
+      <c r="Z3">
+        <v>-0.79</v>
+      </c>
       <c r="AC3" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1036,22 +1069,25 @@
       <c r="AG3">
         <v>9.735039710998535</v>
       </c>
-      <c r="AH3" t="s">
-        <v>129</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300111</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.22</v>
@@ -1069,7 +1105,7 @@
         <v>19264.87</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1110,8 +1146,23 @@
       <c r="W4">
         <v>0.04</v>
       </c>
+      <c r="X4">
+        <v>2.26</v>
+      </c>
+      <c r="Y4">
+        <v>4.64</v>
+      </c>
+      <c r="Z4">
+        <v>2.88</v>
+      </c>
       <c r="AC4" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1119,22 +1170,25 @@
       <c r="AG4">
         <v>2.785808563232422</v>
       </c>
-      <c r="AH4" t="s">
-        <v>129</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300237</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>3.29</v>
@@ -1152,7 +1206,7 @@
         <v>89563.10000000001</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1193,8 +1247,23 @@
       <c r="W5">
         <v>-3.09</v>
       </c>
+      <c r="X5">
+        <v>-6.7</v>
+      </c>
+      <c r="Y5">
+        <v>3.55</v>
+      </c>
+      <c r="Z5">
+        <v>2.9</v>
+      </c>
       <c r="AC5" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1202,22 +1271,25 @@
       <c r="AG5">
         <v>-1.007400989532471</v>
       </c>
-      <c r="AH5" t="s">
-        <v>129</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300308</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -1235,7 +1307,7 @@
         <v>906394.73</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6">
         <v>36</v>
@@ -1276,8 +1348,23 @@
       <c r="W6">
         <v>-0.03</v>
       </c>
+      <c r="X6">
+        <v>10.99</v>
+      </c>
+      <c r="Y6">
+        <v>429.99</v>
+      </c>
+      <c r="Z6">
+        <v>5.78</v>
+      </c>
       <c r="AC6" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1285,22 +1372,25 @@
       <c r="AG6">
         <v>3.169519424438477</v>
       </c>
-      <c r="AH6" t="s">
-        <v>129</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300324</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>5.31</v>
@@ -1318,7 +1408,7 @@
         <v>325286.89</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1359,8 +1449,23 @@
       <c r="W7">
         <v>-3.23</v>
       </c>
+      <c r="X7">
+        <v>-7.27</v>
+      </c>
+      <c r="Y7">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>-0.98</v>
+      </c>
       <c r="AC7" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1368,22 +1473,25 @@
       <c r="AG7">
         <v>24.65521812438965</v>
       </c>
-      <c r="AH7" t="s">
-        <v>129</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300389</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-8.640000000000001</v>
@@ -1401,7 +1509,7 @@
         <v>26836.68</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1442,8 +1550,23 @@
       <c r="W8">
         <v>0.21</v>
       </c>
+      <c r="X8">
+        <v>-8.44</v>
+      </c>
+      <c r="Y8">
+        <v>16.44</v>
+      </c>
+      <c r="Z8">
+        <v>-0.3</v>
+      </c>
       <c r="AC8" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1451,22 +1574,25 @@
       <c r="AG8">
         <v>-0.06284535676240921</v>
       </c>
-      <c r="AH8" t="s">
-        <v>130</v>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300394</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-3.55</v>
@@ -1484,7 +1610,7 @@
         <v>546268.72</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9">
         <v>26</v>
@@ -1525,8 +1651,23 @@
       <c r="W9">
         <v>-0.19</v>
       </c>
+      <c r="X9">
+        <v>3.08</v>
+      </c>
+      <c r="Y9">
+        <v>211.58</v>
+      </c>
+      <c r="Z9">
+        <v>-1.26</v>
+      </c>
       <c r="AC9" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1534,22 +1675,25 @@
       <c r="AG9">
         <v>-1.790124654769897</v>
       </c>
-      <c r="AH9" t="s">
-        <v>129</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300450</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>11.7</v>
@@ -1567,7 +1711,7 @@
         <v>474059.32</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1608,8 +1752,23 @@
       <c r="W10">
         <v>-0.09</v>
       </c>
+      <c r="X10">
+        <v>0.37</v>
+      </c>
+      <c r="Y10">
+        <v>46.98</v>
+      </c>
+      <c r="Z10">
+        <v>3.34</v>
+      </c>
       <c r="AC10" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1617,22 +1776,25 @@
       <c r="AG10">
         <v>12.08442974090576</v>
       </c>
-      <c r="AH10" t="s">
-        <v>129</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300457</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>2.13</v>
@@ -1650,7 +1812,7 @@
         <v>77190.27</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1691,8 +1853,23 @@
       <c r="W11">
         <v>0.17</v>
       </c>
+      <c r="X11">
+        <v>2.66</v>
+      </c>
+      <c r="Y11">
+        <v>30.88</v>
+      </c>
+      <c r="Z11">
+        <v>13.07</v>
+      </c>
       <c r="AC11" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1700,22 +1877,25 @@
       <c r="AG11">
         <v>9.658893585205078</v>
       </c>
-      <c r="AH11" t="s">
-        <v>129</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300458</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-4.9</v>
@@ -1733,7 +1913,7 @@
         <v>239109.07</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -1774,8 +1954,23 @@
       <c r="W12">
         <v>-0.3</v>
       </c>
+      <c r="X12">
+        <v>0.62</v>
+      </c>
+      <c r="Y12">
+        <v>50.96</v>
+      </c>
+      <c r="Z12">
+        <v>2.06</v>
+      </c>
       <c r="AC12" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1783,22 +1978,25 @@
       <c r="AG12">
         <v>-0.490727961063385</v>
       </c>
-      <c r="AH12" t="s">
-        <v>129</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300465</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-2.53</v>
@@ -1816,7 +2014,7 @@
         <v>161943.9</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1857,8 +2055,23 @@
       <c r="W13">
         <v>-0.45</v>
       </c>
+      <c r="X13">
+        <v>-6.98</v>
+      </c>
+      <c r="Y13">
+        <v>26.86</v>
+      </c>
+      <c r="Z13">
+        <v>-1.94</v>
+      </c>
       <c r="AC13" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1866,22 +2079,25 @@
       <c r="AG13">
         <v>3.096483469009399</v>
       </c>
-      <c r="AH13" t="s">
-        <v>129</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300469</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.09</v>
@@ -1899,7 +2115,7 @@
         <v>30731.48</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1940,8 +2156,23 @@
       <c r="W14">
         <v>-0.06</v>
       </c>
+      <c r="X14">
+        <v>9.75</v>
+      </c>
+      <c r="Y14">
+        <v>68.88</v>
+      </c>
+      <c r="Z14">
+        <v>15.53</v>
+      </c>
       <c r="AC14" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1949,22 +2180,25 @@
       <c r="AG14">
         <v>5.37298583984375</v>
       </c>
-      <c r="AH14" t="s">
-        <v>129</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300475</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-2.69</v>
@@ -1982,7 +2216,7 @@
         <v>57627.97</v>
       </c>
       <c r="J15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2023,8 +2257,23 @@
       <c r="W15">
         <v>-0.11</v>
       </c>
+      <c r="X15">
+        <v>0.32</v>
+      </c>
+      <c r="Y15">
+        <v>46.12</v>
+      </c>
+      <c r="Z15">
+        <v>1.05</v>
+      </c>
       <c r="AC15" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2032,22 +2281,25 @@
       <c r="AG15">
         <v>4.714120864868164</v>
       </c>
-      <c r="AH15" t="s">
-        <v>129</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300476</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>6.81</v>
@@ -2065,7 +2317,7 @@
         <v>935451.03</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16">
         <v>60</v>
@@ -2106,8 +2358,23 @@
       <c r="W16">
         <v>0.2</v>
       </c>
+      <c r="X16">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="Y16">
+        <v>277.77</v>
+      </c>
+      <c r="Z16">
+        <v>-3.82</v>
+      </c>
       <c r="AC16" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2115,22 +2382,25 @@
       <c r="AG16">
         <v>-2.017449617385864</v>
       </c>
-      <c r="AH16" t="s">
-        <v>129</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300486</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-2.11</v>
@@ -2148,7 +2418,7 @@
         <v>88633.34</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17">
         <v>10</v>
@@ -2189,8 +2459,23 @@
       <c r="W17">
         <v>-0.46</v>
       </c>
+      <c r="X17">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="Y17">
+        <v>27.5</v>
+      </c>
+      <c r="Z17">
+        <v>16.38</v>
+      </c>
       <c r="AC17" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2198,22 +2483,25 @@
       <c r="AG17">
         <v>4.148094654083252</v>
       </c>
-      <c r="AH17" t="s">
-        <v>129</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300491</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-0.15</v>
@@ -2231,7 +2519,7 @@
         <v>21076.98</v>
       </c>
       <c r="J18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -2272,8 +2560,23 @@
       <c r="W18">
         <v>0.12</v>
       </c>
+      <c r="X18">
+        <v>-2.82</v>
+      </c>
+      <c r="Y18">
+        <v>38.38</v>
+      </c>
+      <c r="Z18">
+        <v>-1.46</v>
+      </c>
       <c r="AC18" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2281,22 +2584,25 @@
       <c r="AG18">
         <v>4.286334037780762</v>
       </c>
-      <c r="AH18" t="s">
-        <v>129</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300502</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0.83</v>
@@ -2314,7 +2620,7 @@
         <v>889122.61</v>
       </c>
       <c r="J19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19">
         <v>50</v>
@@ -2355,8 +2661,23 @@
       <c r="W19">
         <v>-0.11</v>
       </c>
+      <c r="X19">
+        <v>3.21</v>
+      </c>
+      <c r="Y19">
+        <v>382</v>
+      </c>
+      <c r="Z19">
+        <v>-2.48</v>
+      </c>
       <c r="AC19" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2364,22 +2685,25 @@
       <c r="AG19">
         <v>-3.144753456115723</v>
       </c>
-      <c r="AH19" t="s">
-        <v>129</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300548</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-0.9399999999999999</v>
@@ -2397,7 +2721,7 @@
         <v>172644.58</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>36</v>
@@ -2438,8 +2762,23 @@
       <c r="W20">
         <v>-0.02</v>
       </c>
+      <c r="X20">
+        <v>4.21</v>
+      </c>
+      <c r="Y20">
+        <v>138.9</v>
+      </c>
+      <c r="Z20">
+        <v>-2.8</v>
+      </c>
       <c r="AC20" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2447,22 +2786,25 @@
       <c r="AG20">
         <v>5.591941833496094</v>
       </c>
-      <c r="AH20" t="s">
-        <v>129</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300573</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>2.04</v>
@@ -2480,7 +2822,7 @@
         <v>123184.41</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2521,8 +2863,23 @@
       <c r="W21">
         <v>0.2</v>
       </c>
+      <c r="X21">
+        <v>-3.04</v>
+      </c>
+      <c r="Y21">
+        <v>78.38</v>
+      </c>
+      <c r="Z21">
+        <v>-0.9399999999999999</v>
+      </c>
       <c r="AC21" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2530,22 +2887,25 @@
       <c r="AG21">
         <v>4.33712911605835</v>
       </c>
-      <c r="AH21" t="s">
-        <v>129</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300584</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>11.05</v>
@@ -2563,7 +2923,7 @@
         <v>73176.32000000001</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K22">
         <v>16</v>
@@ -2604,8 +2964,23 @@
       <c r="W22">
         <v>-0.5</v>
       </c>
+      <c r="X22">
+        <v>-2.25</v>
+      </c>
+      <c r="Y22">
+        <v>69.17</v>
+      </c>
+      <c r="Z22">
+        <v>-2.5</v>
+      </c>
       <c r="AC22" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2613,22 +2988,25 @@
       <c r="AG22">
         <v>4.032200336456299</v>
       </c>
-      <c r="AH22" t="s">
-        <v>129</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300604</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-2.08</v>
@@ -2646,7 +3024,7 @@
         <v>111867.72</v>
       </c>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2687,8 +3065,23 @@
       <c r="W23">
         <v>-0.25</v>
       </c>
+      <c r="X23">
+        <v>0.76</v>
+      </c>
+      <c r="Y23">
+        <v>61.43</v>
+      </c>
+      <c r="Z23">
+        <v>0.38</v>
+      </c>
       <c r="AC23" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2696,22 +3089,25 @@
       <c r="AG23">
         <v>2.517791986465454</v>
       </c>
-      <c r="AH23" t="s">
-        <v>129</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300620</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-0.52</v>
@@ -2729,7 +3125,7 @@
         <v>198803.17</v>
       </c>
       <c r="J24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K24">
         <v>16</v>
@@ -2770,8 +3166,23 @@
       <c r="W24">
         <v>-0.1</v>
       </c>
+      <c r="X24">
+        <v>5.54</v>
+      </c>
+      <c r="Y24">
+        <v>109.8</v>
+      </c>
+      <c r="Z24">
+        <v>-0.16</v>
+      </c>
       <c r="AC24" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2779,22 +3190,25 @@
       <c r="AG24">
         <v>0.1420596092939377</v>
       </c>
-      <c r="AH24" t="s">
-        <v>129</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300724</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>6.81</v>
@@ -2812,7 +3226,7 @@
         <v>226516.74</v>
       </c>
       <c r="J25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K25">
         <v>11</v>
@@ -2853,8 +3267,23 @@
       <c r="W25">
         <v>-0.25</v>
       </c>
+      <c r="X25">
+        <v>1.94</v>
+      </c>
+      <c r="Y25">
+        <v>114.68</v>
+      </c>
+      <c r="Z25">
+        <v>-0.6899999999999999</v>
+      </c>
       <c r="AC25" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2862,22 +3291,25 @@
       <c r="AG25">
         <v>0.5215044021606445</v>
       </c>
-      <c r="AH25" t="s">
-        <v>129</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300790</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-2.93</v>
@@ -2895,7 +3327,7 @@
         <v>38008.28</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2936,8 +3368,23 @@
       <c r="W26">
         <v>-0.21</v>
       </c>
+      <c r="X26">
+        <v>-0.59</v>
+      </c>
+      <c r="Y26">
+        <v>33.03</v>
+      </c>
+      <c r="Z26">
+        <v>1.6</v>
+      </c>
       <c r="AC26" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2945,22 +3392,25 @@
       <c r="AG26">
         <v>3.153360605239868</v>
       </c>
-      <c r="AH26" t="s">
-        <v>129</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300797</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>7.66</v>
@@ -2978,7 +3428,7 @@
         <v>61324.76</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3019,8 +3469,23 @@
       <c r="W27">
         <v>0.15</v>
       </c>
+      <c r="X27">
+        <v>-6.73</v>
+      </c>
+      <c r="Y27">
+        <v>19.61</v>
+      </c>
+      <c r="Z27">
+        <v>-5.08</v>
+      </c>
       <c r="AC27" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3028,22 +3493,25 @@
       <c r="AG27">
         <v>3.664197444915771</v>
       </c>
-      <c r="AH27" t="s">
-        <v>129</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300803</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-1.38</v>
@@ -3061,7 +3529,7 @@
         <v>203172.81</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K28">
         <v>16</v>
@@ -3102,8 +3570,23 @@
       <c r="W28">
         <v>-0.28</v>
       </c>
+      <c r="X28">
+        <v>-3.85</v>
+      </c>
+      <c r="Y28">
+        <v>146.89</v>
+      </c>
+      <c r="Z28">
+        <v>-1.28</v>
+      </c>
       <c r="AC28" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3111,22 +3594,25 @@
       <c r="AG28">
         <v>-8.539167404174805</v>
       </c>
-      <c r="AH28" t="s">
-        <v>129</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300811</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>0.5</v>
@@ -3144,7 +3630,7 @@
         <v>56775.56</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29">
         <v>12</v>
@@ -3185,8 +3671,23 @@
       <c r="W29">
         <v>0.18</v>
       </c>
+      <c r="X29">
+        <v>0.86</v>
+      </c>
+      <c r="Y29">
+        <v>77.95999999999999</v>
+      </c>
+      <c r="Z29">
+        <v>-1.33</v>
+      </c>
       <c r="AC29" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3194,22 +3695,25 @@
       <c r="AG29">
         <v>5.400574207305908</v>
       </c>
-      <c r="AH29" t="s">
-        <v>129</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300843</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-2.69</v>
@@ -3227,7 +3731,7 @@
         <v>34711.13</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K30">
         <v>13</v>
@@ -3268,8 +3772,23 @@
       <c r="W30">
         <v>-0.38</v>
       </c>
+      <c r="X30">
+        <v>-6.23</v>
+      </c>
+      <c r="Y30">
+        <v>57.81</v>
+      </c>
+      <c r="Z30">
+        <v>-8.640000000000001</v>
+      </c>
       <c r="AC30" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3277,22 +3796,25 @@
       <c r="AG30">
         <v>22.72966194152832</v>
       </c>
-      <c r="AH30" t="s">
-        <v>129</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300913</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-0.48</v>
@@ -3310,7 +3832,7 @@
         <v>66571.33</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K31">
         <v>11</v>
@@ -3351,8 +3873,23 @@
       <c r="W31">
         <v>0.08</v>
       </c>
+      <c r="X31">
+        <v>-7.58</v>
+      </c>
+      <c r="Y31">
+        <v>63.4</v>
+      </c>
+      <c r="Z31">
+        <v>-4.66</v>
+      </c>
       <c r="AC31" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3360,22 +3897,25 @@
       <c r="AG31">
         <v>25.3515510559082</v>
       </c>
-      <c r="AH31" t="s">
-        <v>129</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301150</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>5.48</v>
@@ -3393,7 +3933,7 @@
         <v>32812.24</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3434,8 +3974,23 @@
       <c r="W32">
         <v>0.33</v>
       </c>
+      <c r="X32">
+        <v>-2.17</v>
+      </c>
+      <c r="Y32">
+        <v>33.5</v>
+      </c>
+      <c r="Z32">
+        <v>1.24</v>
+      </c>
       <c r="AC32" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3443,22 +3998,25 @@
       <c r="AG32">
         <v>0.6667815446853638</v>
       </c>
-      <c r="AH32" t="s">
-        <v>129</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301165</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-6.82</v>
@@ -3476,7 +4034,7 @@
         <v>89328.58</v>
       </c>
       <c r="J33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K33">
         <v>16</v>
@@ -3517,8 +4075,23 @@
       <c r="W33">
         <v>-0.82</v>
       </c>
+      <c r="X33">
+        <v>-1.34</v>
+      </c>
+      <c r="Y33">
+        <v>92.5</v>
+      </c>
+      <c r="Z33">
+        <v>-4.18</v>
+      </c>
       <c r="AC33" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3526,22 +4099,25 @@
       <c r="AG33">
         <v>3.584139823913574</v>
       </c>
-      <c r="AH33" t="s">
-        <v>129</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301183</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-4.01</v>
@@ -3559,7 +4135,7 @@
         <v>61226.59</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K34">
         <v>11</v>
@@ -3600,8 +4176,23 @@
       <c r="W34">
         <v>-0.68</v>
       </c>
+      <c r="X34">
+        <v>-0.76</v>
+      </c>
+      <c r="Y34">
+        <v>106.89</v>
+      </c>
+      <c r="Z34">
+        <v>-1.46</v>
+      </c>
       <c r="AC34" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3609,22 +4200,25 @@
       <c r="AG34">
         <v>5.69560432434082</v>
       </c>
-      <c r="AH34" t="s">
-        <v>129</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301205</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>2.53</v>
@@ -3642,7 +4236,7 @@
         <v>90661.03999999999</v>
       </c>
       <c r="J35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K35">
         <v>10</v>
@@ -3683,8 +4277,23 @@
       <c r="W35">
         <v>0.19</v>
       </c>
+      <c r="X35">
+        <v>2.59</v>
+      </c>
+      <c r="Y35">
+        <v>120.04</v>
+      </c>
+      <c r="Z35">
+        <v>-0.78</v>
+      </c>
       <c r="AC35" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3692,22 +4301,25 @@
       <c r="AG35">
         <v>3.483711004257202</v>
       </c>
-      <c r="AH35" t="s">
-        <v>129</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301316</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-0.32</v>
@@ -3725,7 +4337,7 @@
         <v>79063.72</v>
       </c>
       <c r="J36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -3766,8 +4378,23 @@
       <c r="W36">
         <v>-0.02</v>
       </c>
+      <c r="X36">
+        <v>-1.84</v>
+      </c>
+      <c r="Y36">
+        <v>67.5</v>
+      </c>
+      <c r="Z36">
+        <v>3.67</v>
+      </c>
       <c r="AC36" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3775,22 +4402,25 @@
       <c r="AG36">
         <v>5.66538143157959</v>
       </c>
-      <c r="AH36" t="s">
-        <v>129</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301389</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-6.22</v>
@@ -3808,7 +4438,7 @@
         <v>80398.67999999999</v>
       </c>
       <c r="J37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K37">
         <v>41</v>
@@ -3849,8 +4479,23 @@
       <c r="W37">
         <v>-2.42</v>
       </c>
+      <c r="X37">
+        <v>-3.25</v>
+      </c>
+      <c r="Y37">
+        <v>67.2</v>
+      </c>
+      <c r="Z37">
+        <v>-3.88</v>
+      </c>
       <c r="AC37" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3858,22 +4503,25 @@
       <c r="AG37">
         <v>-3.854483604431152</v>
       </c>
-      <c r="AH37" t="s">
-        <v>129</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301488</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>1.54</v>
@@ -3891,7 +4539,7 @@
         <v>56826.93</v>
       </c>
       <c r="J38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K38">
         <v>5</v>
@@ -3932,8 +4580,23 @@
       <c r="W38">
         <v>0.06</v>
       </c>
+      <c r="X38">
+        <v>-0.03</v>
+      </c>
+      <c r="Y38">
+        <v>143.9</v>
+      </c>
+      <c r="Z38">
+        <v>21.13</v>
+      </c>
       <c r="AC38" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3941,22 +4604,25 @@
       <c r="AG38">
         <v>2.310998201370239</v>
       </c>
-      <c r="AH38" t="s">
-        <v>129</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301489</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-1.6</v>
@@ -3974,7 +4640,7 @@
         <v>24113.77</v>
       </c>
       <c r="J39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K39">
         <v>24</v>
@@ -4015,8 +4681,23 @@
       <c r="W39">
         <v>-0.04</v>
       </c>
+      <c r="X39">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y39">
+        <v>216</v>
+      </c>
+      <c r="Z39">
+        <v>2.14</v>
+      </c>
       <c r="AC39" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4024,22 +4705,25 @@
       <c r="AG39">
         <v>6.033416748046875</v>
       </c>
-      <c r="AH39" t="s">
-        <v>129</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301526</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-0.79</v>
@@ -4057,7 +4741,7 @@
         <v>77299.89999999999</v>
       </c>
       <c r="J40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K40">
         <v>19</v>
@@ -4098,8 +4782,23 @@
       <c r="W40">
         <v>-0.25</v>
       </c>
+      <c r="X40">
+        <v>-2.73</v>
+      </c>
+      <c r="Y40">
+        <v>7.43</v>
+      </c>
+      <c r="Z40">
+        <v>-1.72</v>
+      </c>
       <c r="AC40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4107,22 +4806,25 @@
       <c r="AG40">
         <v>4.518558025360107</v>
       </c>
-      <c r="AH40" t="s">
-        <v>129</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688041</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-1.21</v>
@@ -4140,7 +4842,7 @@
         <v>383941.91</v>
       </c>
       <c r="J41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4181,8 +4883,23 @@
       <c r="W41">
         <v>-0.04</v>
       </c>
+      <c r="X41">
+        <v>-3.42</v>
+      </c>
+      <c r="Y41">
+        <v>199.39</v>
+      </c>
+      <c r="Z41">
+        <v>-3.42</v>
+      </c>
       <c r="AC41" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4190,22 +4907,25 @@
       <c r="AG41">
         <v>-5.000170707702637</v>
       </c>
-      <c r="AH41" t="s">
-        <v>129</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688062</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>6.13</v>
@@ -4223,7 +4943,7 @@
         <v>108381.8</v>
       </c>
       <c r="J42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K42">
         <v>6</v>
@@ -4264,8 +4984,23 @@
       <c r="W42">
         <v>-0.15</v>
       </c>
+      <c r="X42">
+        <v>1.35</v>
+      </c>
+      <c r="Y42">
+        <v>61.39</v>
+      </c>
+      <c r="Z42">
+        <v>0.43</v>
+      </c>
       <c r="AC42" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4273,22 +5008,25 @@
       <c r="AG42">
         <v>3.489212989807129</v>
       </c>
-      <c r="AH42" t="s">
-        <v>129</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688066</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-2.87</v>
@@ -4306,7 +5044,7 @@
         <v>38453.19</v>
       </c>
       <c r="J43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K43">
         <v>7</v>
@@ -4347,8 +5085,23 @@
       <c r="W43">
         <v>-0.04</v>
       </c>
+      <c r="X43">
+        <v>-7.94</v>
+      </c>
+      <c r="Y43">
+        <v>38.66</v>
+      </c>
+      <c r="Z43">
+        <v>8.75</v>
+      </c>
       <c r="AC43" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4356,22 +5109,25 @@
       <c r="AG43">
         <v>12.77199172973633</v>
       </c>
-      <c r="AH43" t="s">
-        <v>129</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688108</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>4.32</v>
@@ -4389,7 +5145,7 @@
         <v>110393.61</v>
       </c>
       <c r="J44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4430,8 +5186,23 @@
       <c r="W44">
         <v>0.13</v>
       </c>
+      <c r="X44">
+        <v>12.67</v>
+      </c>
+      <c r="Y44">
+        <v>37.4</v>
+      </c>
+      <c r="Z44">
+        <v>5.32</v>
+      </c>
       <c r="AC44" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4439,22 +5210,25 @@
       <c r="AG44">
         <v>6.121535778045654</v>
       </c>
-      <c r="AH44" t="s">
-        <v>129</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688155</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-0.48</v>
@@ -4472,7 +5246,7 @@
         <v>28228.18</v>
       </c>
       <c r="J45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4513,8 +5287,23 @@
       <c r="W45">
         <v>0.36</v>
       </c>
+      <c r="X45">
+        <v>-2.15</v>
+      </c>
+      <c r="Y45">
+        <v>66.84</v>
+      </c>
+      <c r="Z45">
+        <v>0.51</v>
+      </c>
       <c r="AC45" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4522,22 +5311,25 @@
       <c r="AG45">
         <v>4.259330749511719</v>
       </c>
-      <c r="AH45" t="s">
-        <v>129</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688167</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>0.29</v>
@@ -4555,7 +5347,7 @@
         <v>46873.59</v>
       </c>
       <c r="J46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K46">
         <v>20</v>
@@ -4596,8 +5388,23 @@
       <c r="W46">
         <v>0.22</v>
       </c>
+      <c r="X46">
+        <v>4.36</v>
+      </c>
+      <c r="Y46">
+        <v>136.66</v>
+      </c>
+      <c r="Z46">
+        <v>2.15</v>
+      </c>
       <c r="AC46" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4605,22 +5412,25 @@
       <c r="AG46">
         <v>4.225536823272705</v>
       </c>
-      <c r="AH46" t="s">
-        <v>129</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688195</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>6.14</v>
@@ -4638,7 +5448,7 @@
         <v>73117.16</v>
       </c>
       <c r="J47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K47">
         <v>12</v>
@@ -4679,8 +5489,23 @@
       <c r="W47">
         <v>0.3</v>
       </c>
+      <c r="X47">
+        <v>0.06</v>
+      </c>
+      <c r="Y47">
+        <v>88</v>
+      </c>
+      <c r="Z47">
+        <v>-3.03</v>
+      </c>
       <c r="AC47" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4688,22 +5513,25 @@
       <c r="AG47">
         <v>4.559985160827637</v>
       </c>
-      <c r="AH47" t="s">
-        <v>129</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688205</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-6.43</v>
@@ -4721,7 +5549,7 @@
         <v>59891.23</v>
       </c>
       <c r="J48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K48">
         <v>8</v>
@@ -4762,8 +5590,23 @@
       <c r="W48">
         <v>0.02</v>
       </c>
+      <c r="X48">
+        <v>0.78</v>
+      </c>
+      <c r="Y48">
+        <v>114.22</v>
+      </c>
+      <c r="Z48">
+        <v>-2.33</v>
+      </c>
       <c r="AC48" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4771,22 +5614,25 @@
       <c r="AG48">
         <v>2.707242727279663</v>
       </c>
-      <c r="AH48" t="s">
-        <v>129</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688222</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-3.53</v>
@@ -4804,7 +5650,7 @@
         <v>31650.11</v>
       </c>
       <c r="J49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -4845,8 +5691,23 @@
       <c r="W49">
         <v>-0.54</v>
       </c>
+      <c r="X49">
+        <v>13.74</v>
+      </c>
+      <c r="Y49">
+        <v>29.55</v>
+      </c>
+      <c r="Z49">
+        <v>13.7</v>
+      </c>
       <c r="AC49" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4854,22 +5715,25 @@
       <c r="AG49">
         <v>4.231492042541504</v>
       </c>
-      <c r="AH49" t="s">
-        <v>129</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688228</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-8.31</v>
@@ -4887,7 +5751,7 @@
         <v>53479.8</v>
       </c>
       <c r="J50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K50">
         <v>4</v>
@@ -4928,8 +5792,23 @@
       <c r="W50">
         <v>-0.48</v>
       </c>
+      <c r="X50">
+        <v>0.57</v>
+      </c>
+      <c r="Y50">
+        <v>133.99</v>
+      </c>
+      <c r="Z50">
+        <v>0.77</v>
+      </c>
       <c r="AC50" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4937,22 +5816,25 @@
       <c r="AG50">
         <v>6.065120220184326</v>
       </c>
-      <c r="AH50" t="s">
-        <v>129</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688256</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>3.21</v>
@@ -4970,7 +5852,7 @@
         <v>942217.22</v>
       </c>
       <c r="J51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K51">
         <v>7</v>
@@ -5011,8 +5893,23 @@
       <c r="W51">
         <v>0.02</v>
       </c>
+      <c r="X51">
+        <v>-5.07</v>
+      </c>
+      <c r="Y51">
+        <v>1439</v>
+      </c>
+      <c r="Z51">
+        <v>-3.74</v>
+      </c>
       <c r="AC51" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5020,22 +5917,25 @@
       <c r="AG51">
         <v>2.669363737106323</v>
       </c>
-      <c r="AH51" t="s">
-        <v>129</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688270</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-1.55</v>
@@ -5053,7 +5953,7 @@
         <v>36217.34</v>
       </c>
       <c r="J52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K52">
         <v>15</v>
@@ -5094,8 +5994,23 @@
       <c r="W52">
         <v>-0.24</v>
       </c>
+      <c r="X52">
+        <v>-2.09</v>
+      </c>
+      <c r="Y52">
+        <v>75.69</v>
+      </c>
+      <c r="Z52">
+        <v>-2.87</v>
+      </c>
       <c r="AC52" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5103,22 +6018,25 @@
       <c r="AG52">
         <v>5.451210975646973</v>
       </c>
-      <c r="AH52" t="s">
-        <v>129</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688299</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-3.16</v>
@@ -5136,7 +6054,7 @@
         <v>39422.11</v>
       </c>
       <c r="J53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -5177,8 +6095,23 @@
       <c r="W53">
         <v>-0.77</v>
       </c>
+      <c r="X53">
+        <v>-2.32</v>
+      </c>
+      <c r="Y53">
+        <v>25.45</v>
+      </c>
+      <c r="Z53">
+        <v>6.49</v>
+      </c>
       <c r="AC53" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5186,22 +6119,25 @@
       <c r="AG53">
         <v>3.947572469711304</v>
       </c>
-      <c r="AH53" t="s">
-        <v>129</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688313</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>0.61</v>
@@ -5219,7 +6155,7 @@
         <v>175755.85</v>
       </c>
       <c r="J54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K54">
         <v>16</v>
@@ -5260,8 +6196,23 @@
       <c r="W54">
         <v>0.11</v>
       </c>
+      <c r="X54">
+        <v>4.73</v>
+      </c>
+      <c r="Y54">
+        <v>84.97</v>
+      </c>
+      <c r="Z54">
+        <v>1.15</v>
+      </c>
       <c r="AC54" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5269,22 +6220,25 @@
       <c r="AG54">
         <v>4.924798965454102</v>
       </c>
-      <c r="AH54" t="s">
-        <v>129</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688331</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-1.65</v>
@@ -5302,7 +6256,7 @@
         <v>43756.91</v>
       </c>
       <c r="J55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5343,8 +6297,23 @@
       <c r="W55">
         <v>-0.3</v>
       </c>
+      <c r="X55">
+        <v>-0.31</v>
+      </c>
+      <c r="Y55">
+        <v>95.3</v>
+      </c>
+      <c r="Z55">
+        <v>0.08</v>
+      </c>
       <c r="AC55" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5352,22 +6321,25 @@
       <c r="AG55">
         <v>0.4229131639003754</v>
       </c>
-      <c r="AH55" t="s">
-        <v>129</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688343</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-1.95</v>
@@ -5385,7 +6357,7 @@
         <v>112860.92</v>
       </c>
       <c r="J56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K56">
         <v>6</v>
@@ -5426,8 +6398,23 @@
       <c r="W56">
         <v>-0.45</v>
       </c>
+      <c r="X56">
+        <v>-3.91</v>
+      </c>
+      <c r="Y56">
+        <v>93</v>
+      </c>
+      <c r="Z56">
+        <v>-3</v>
+      </c>
       <c r="AC56" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5435,22 +6422,25 @@
       <c r="AG56">
         <v>1.597696304321289</v>
       </c>
-      <c r="AH56" t="s">
-        <v>129</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688347</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-8.51</v>
@@ -5468,7 +6458,7 @@
         <v>244013.03</v>
       </c>
       <c r="J57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K57">
         <v>12</v>
@@ -5509,8 +6499,23 @@
       <c r="W57">
         <v>-1.11</v>
       </c>
+      <c r="X57">
+        <v>1.42</v>
+      </c>
+      <c r="Y57">
+        <v>80.66</v>
+      </c>
+      <c r="Z57">
+        <v>2.86</v>
+      </c>
       <c r="AC57" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5518,22 +6523,25 @@
       <c r="AG57">
         <v>3.185594081878662</v>
       </c>
-      <c r="AH57" t="s">
-        <v>129</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688372</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-2.15</v>
@@ -5551,7 +6559,7 @@
         <v>20002.94</v>
       </c>
       <c r="J58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K58">
         <v>9</v>
@@ -5592,8 +6600,23 @@
       <c r="W58">
         <v>-0.28</v>
       </c>
+      <c r="X58">
+        <v>-1.15</v>
+      </c>
+      <c r="Y58">
+        <v>82.88</v>
+      </c>
+      <c r="Z58">
+        <v>-0.07000000000000001</v>
+      </c>
       <c r="AC58" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5601,22 +6624,25 @@
       <c r="AG58">
         <v>1.872700810432434</v>
       </c>
-      <c r="AH58" t="s">
-        <v>129</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688388</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>14.99</v>
@@ -5634,7 +6660,7 @@
         <v>144733.45</v>
       </c>
       <c r="J59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5675,8 +6701,23 @@
       <c r="W59">
         <v>0.19</v>
       </c>
+      <c r="X59">
+        <v>-1.35</v>
+      </c>
+      <c r="Y59">
+        <v>32.1</v>
+      </c>
+      <c r="Z59">
+        <v>-0.83</v>
+      </c>
       <c r="AC59" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5684,22 +6725,25 @@
       <c r="AG59">
         <v>1.105793237686157</v>
       </c>
-      <c r="AH59" t="s">
-        <v>129</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688498</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>3.56</v>
@@ -5717,7 +6761,7 @@
         <v>136267.72</v>
       </c>
       <c r="J60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K60">
         <v>16</v>
@@ -5758,8 +6802,23 @@
       <c r="W60">
         <v>-0.22</v>
       </c>
+      <c r="X60">
+        <v>13.01</v>
+      </c>
+      <c r="Y60">
+        <v>422.4</v>
+      </c>
+      <c r="Z60">
+        <v>13.68</v>
+      </c>
       <c r="AC60" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>1</v>
@@ -5767,22 +6826,25 @@
       <c r="AG60">
         <v>-11.05064010620117</v>
       </c>
-      <c r="AH60" t="s">
-        <v>129</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688629</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-6.51</v>
@@ -5800,7 +6862,7 @@
         <v>91716.7</v>
       </c>
       <c r="J61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K61">
         <v>7</v>
@@ -5841,8 +6903,23 @@
       <c r="W61">
         <v>-0.9</v>
       </c>
+      <c r="X61">
+        <v>0.64</v>
+      </c>
+      <c r="Y61">
+        <v>89.31</v>
+      </c>
+      <c r="Z61">
+        <v>-2.1</v>
+      </c>
       <c r="AC61" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5850,22 +6927,25 @@
       <c r="AG61">
         <v>2.327791690826416</v>
       </c>
-      <c r="AH61" t="s">
-        <v>129</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688630</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>2.99</v>
@@ -5883,7 +6963,7 @@
         <v>62813.52</v>
       </c>
       <c r="J62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K62">
         <v>29</v>
@@ -5924,8 +7004,23 @@
       <c r="W62">
         <v>0.05</v>
       </c>
+      <c r="X62">
+        <v>1.38</v>
+      </c>
+      <c r="Y62">
+        <v>140.19</v>
+      </c>
+      <c r="Z62">
+        <v>-4.81</v>
+      </c>
       <c r="AC62" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>1</v>
@@ -5933,22 +7028,25 @@
       <c r="AG62">
         <v>8.724432945251465</v>
       </c>
-      <c r="AH62" t="s">
-        <v>130</v>
+      <c r="AH62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688668</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-4.49</v>
@@ -5966,7 +7064,7 @@
         <v>55116.86</v>
       </c>
       <c r="J63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K63">
         <v>34</v>
@@ -6007,8 +7105,23 @@
       <c r="W63">
         <v>-0.09</v>
       </c>
+      <c r="X63">
+        <v>5.33</v>
+      </c>
+      <c r="Y63">
+        <v>121.9</v>
+      </c>
+      <c r="Z63">
+        <v>-1.71</v>
+      </c>
       <c r="AC63" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6016,22 +7129,25 @@
       <c r="AG63">
         <v>3.027261018753052</v>
       </c>
-      <c r="AH63" t="s">
-        <v>129</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688709</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>13.86</v>
@@ -6049,7 +7165,7 @@
         <v>102698.27</v>
       </c>
       <c r="J64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K64">
         <v>8</v>
@@ -6090,8 +7206,23 @@
       <c r="W64">
         <v>-0.46</v>
       </c>
+      <c r="X64">
+        <v>14.97</v>
+      </c>
+      <c r="Y64">
+        <v>59.39</v>
+      </c>
+      <c r="Z64">
+        <v>13.34</v>
+      </c>
       <c r="AC64" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6099,8 +7230,11 @@
       <c r="AG64">
         <v>11.11675930023193</v>
       </c>
-      <c r="AH64" t="s">
-        <v>129</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
